--- a/packages/meditrak-server/src/tests/testData/surveyResponses/missingResponseId.xlsx
+++ b/packages/meditrak-server/src/tests/testData/surveyResponses/missingResponseId.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Edwin/Documents/Git/meditrak-server/src/tests/testData/surveyResponses/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\Projects\tupaia\packages\meditrak-server\src\tests\testData\surveyResponses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD93F55E-0B09-194C-86C4-95D595DD7890}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6936A5A-0EC2-459B-98D9-AC8844580108}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Basic Clinic Data..." sheetId="1" r:id="rId1"/>
+    <sheet name="Basic Clinic Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateCount="1" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -157,7 +157,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -563,15 +563,15 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -589,7 +589,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -609,7 +609,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -629,7 +629,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -649,7 +649,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
@@ -669,7 +669,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
@@ -689,7 +689,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>36</v>
       </c>
@@ -709,7 +709,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>37</v>
       </c>
@@ -726,7 +726,7 @@
         <v>1234567</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
